--- a/tests/gait/data/manual_gait_turn_results_apcwt.xlsx
+++ b/tests/gait/data/manual_gait_turn_results_apcwt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/test/gait/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F0BFA-6AE3-144A-9601-BCE22E25AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE145489-CEFA-7640-BF81-A6C8936EAA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32820" yWindow="880" windowWidth="29100" windowHeight="27180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,9 +711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -751,7 +751,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -857,7 +857,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -999,7 +999,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1151,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8.6032351269211493E-2</v>
+        <v>8.6032351269204749E-2</v>
       </c>
       <c r="N2">
-        <v>3.8617902901674099E-2</v>
+        <v>3.8617902901674148E-2</v>
       </c>
       <c r="O2">
-        <v>2.4470097875913199E-2</v>
+        <v>2.4470097875913231E-2</v>
       </c>
       <c r="P2">
         <f>0.9964</f>
@@ -1217,15 +1217,15 @@
       </c>
       <c r="AD2">
         <f>2 * SQRT(2 * P2 * N2 - N2 * N2) + 2 * SQRT(2 * AC2 * O2 - O2 * O2)</f>
-        <v>0.83826470373507611</v>
+        <v>0.83826470373507656</v>
       </c>
       <c r="AE2">
         <f>AD2+AD3</f>
-        <v>1.5680608724367628</v>
+        <v>1.5680608724367637</v>
       </c>
       <c r="AF2">
         <f>AE2/R2</f>
-        <v>1.3292171633901035</v>
+        <v>1.3292171633901044</v>
       </c>
       <c r="AG2">
         <f>60/Q2</f>
@@ -1267,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.10452790916275199</v>
+        <v>0.1045279091627464</v>
       </c>
       <c r="N3">
-        <v>3.6139529301154598E-2</v>
+        <v>3.6139529301154681E-2</v>
       </c>
       <c r="O3">
-        <v>1.13191925161707E-2</v>
+        <v>1.131919251617068E-2</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P66" si="0">0.9964</f>
@@ -1333,15 +1333,15 @@
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD66" si="14">2 * SQRT(2 * P3 * N3 - N3 * N3) + 2 * SQRT(2 * AC3 * O3 - O3 * O3)</f>
-        <v>0.72979616870168684</v>
+        <v>0.72979616870168729</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE66" si="15">AD3+AD4</f>
-        <v>1.4067885244415872</v>
+        <v>1.4067885244415876</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF66" si="16">AE3/R3</f>
-        <v>1.2862066509180226</v>
+        <v>1.286206650918023</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG66" si="17">60/Q3</f>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.7461441669129197E-2</v>
+        <v>8.746144166912416E-2</v>
       </c>
       <c r="N4">
-        <v>3.2745768269819099E-2</v>
+        <v>3.2745768269819113E-2</v>
       </c>
       <c r="O4">
-        <v>8.3488002869232594E-3</v>
+        <v>8.3488002869232473E-3</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -1453,11 +1453,11 @@
       </c>
       <c r="AE4">
         <f t="shared" si="15"/>
-        <v>1.421339580383294</v>
+        <v>1.4213395803832944</v>
       </c>
       <c r="AF4">
         <f t="shared" si="16"/>
-        <v>1.3183439586163885</v>
+        <v>1.318343958616389</v>
       </c>
       <c r="AG4">
         <f t="shared" si="17"/>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.11008034940945299</v>
+        <v>0.11008034940944859</v>
       </c>
       <c r="N5">
-        <v>4.1852821859190599E-2</v>
+        <v>4.1852821859190682E-2</v>
       </c>
       <c r="O5">
-        <v>8.6027592451884596E-3</v>
+        <v>8.6027592451884492E-3</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -1565,15 +1565,15 @@
       </c>
       <c r="AD5">
         <f t="shared" si="14"/>
-        <v>0.74434722464339353</v>
+        <v>0.74434722464339398</v>
       </c>
       <c r="AE5">
         <f t="shared" si="15"/>
-        <v>1.4682692257342669</v>
+        <v>1.4682692257342684</v>
       </c>
       <c r="AF5">
         <f t="shared" si="16"/>
-        <v>1.3718135831677822</v>
+        <v>1.3718135831677836</v>
       </c>
       <c r="AG5">
         <f t="shared" si="17"/>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.4092036937334603E-2</v>
+        <v>9.4092036937329787E-2</v>
       </c>
       <c r="N6">
-        <v>3.60457868805295E-2</v>
+        <v>3.6045786880529583E-2</v>
       </c>
       <c r="O6">
-        <v>1.0725346565078E-2</v>
+        <v>1.0725346565078051E-2</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -1681,15 +1681,15 @@
       </c>
       <c r="AD6">
         <f t="shared" si="14"/>
-        <v>0.72392200109087335</v>
+        <v>0.72392200109087435</v>
       </c>
       <c r="AE6">
         <f t="shared" si="15"/>
-        <v>1.4105334890080565</v>
+        <v>1.4105334890080583</v>
       </c>
       <c r="AF6">
         <f t="shared" si="16"/>
-        <v>1.3178707050586222</v>
+        <v>1.3178707050586238</v>
       </c>
       <c r="AG6">
         <f t="shared" si="17"/>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.101644882310807</v>
+        <v>0.10164488231080231</v>
       </c>
       <c r="N7">
-        <v>3.5621369215216102E-2</v>
+        <v>3.5621369215216157E-2</v>
       </c>
       <c r="O7">
-        <v>7.2250802768467001E-3</v>
+        <v>7.2250802768467261E-3</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -1797,15 +1797,15 @@
       </c>
       <c r="AD7">
         <f t="shared" si="14"/>
-        <v>0.68661148791718318</v>
+        <v>0.68661148791718396</v>
       </c>
       <c r="AE7">
         <f t="shared" si="15"/>
-        <v>1.4044207640636153</v>
+        <v>1.4044207640636164</v>
       </c>
       <c r="AF7">
         <f t="shared" si="16"/>
-        <v>1.2840418414295911</v>
+        <v>1.2840418414295922</v>
       </c>
       <c r="AG7">
         <f t="shared" si="17"/>
@@ -1847,13 +1847,13 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.3347631455801106E-2</v>
+        <v>9.3347631455796318E-2</v>
       </c>
       <c r="N8">
-        <v>3.7378736538830601E-2</v>
+        <v>3.7378736538830663E-2</v>
       </c>
       <c r="O8">
-        <v>9.0358213436294108E-3</v>
+        <v>9.0358213436293848E-3</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -1913,15 +1913,15 @@
       </c>
       <c r="AD8">
         <f t="shared" si="14"/>
-        <v>0.71780927614643208</v>
+        <v>0.71780927614643231</v>
       </c>
       <c r="AE8">
         <f t="shared" si="15"/>
-        <v>1.4578263126141102</v>
+        <v>1.4578263126141111</v>
       </c>
       <c r="AF8">
         <f t="shared" si="16"/>
-        <v>1.3049074686336091</v>
+        <v>1.30490746863361</v>
       </c>
       <c r="AG8">
         <f t="shared" si="17"/>
@@ -1963,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.11445773564507999</v>
+        <v>0.1144577356450739</v>
       </c>
       <c r="N9">
-        <v>3.6800596757799599E-2</v>
+        <v>3.6800596757799633E-2</v>
       </c>
       <c r="O9">
-        <v>1.19621923720822E-2</v>
+        <v>1.196219237208224E-2</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -2029,15 +2029,15 @@
       </c>
       <c r="AD9">
         <f t="shared" si="14"/>
-        <v>0.74001703646767814</v>
+        <v>0.7400170364676788</v>
       </c>
       <c r="AE9">
         <f t="shared" si="15"/>
-        <v>1.5089956692420126</v>
+        <v>1.5089956692420139</v>
       </c>
       <c r="AF9">
         <f t="shared" si="16"/>
-        <v>1.3050773355606595</v>
+        <v>1.3050773355606606</v>
       </c>
       <c r="AG9">
         <f t="shared" si="17"/>
@@ -2079,13 +2079,13 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>0.121651196665711</v>
+        <v>0.12165119666570109</v>
       </c>
       <c r="N10">
         <v>3.8229694226967502E-2</v>
       </c>
       <c r="O10">
-        <v>1.43197629841456E-2</v>
+        <v>1.4319762984145669E-2</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -2145,15 +2145,15 @@
       </c>
       <c r="AD10">
         <f t="shared" si="14"/>
-        <v>0.76897863277433454</v>
+        <v>0.76897863277433509</v>
       </c>
       <c r="AE10">
         <f t="shared" si="15"/>
-        <v>1.3765992640600151</v>
+        <v>1.3765992640600171</v>
       </c>
       <c r="AF10">
         <f t="shared" si="16"/>
-        <v>1.1152196569600121</v>
+        <v>1.1152196569600139</v>
       </c>
       <c r="AG10">
         <f t="shared" si="17"/>
@@ -2195,13 +2195,13 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>9.0368865418508207E-2</v>
+        <v>9.0368865418496494E-2</v>
       </c>
       <c r="N11">
-        <v>2.2962724081418501E-2</v>
+        <v>2.2962724081418608E-2</v>
       </c>
       <c r="O11">
-        <v>9.5758491752347408E-3</v>
+        <v>9.5758491752347963E-3</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -2261,15 +2261,15 @@
       </c>
       <c r="AD11">
         <f t="shared" si="14"/>
-        <v>0.60762063128568056</v>
+        <v>0.607620631285682</v>
       </c>
       <c r="AE11">
         <f t="shared" si="15"/>
-        <v>1.2613075627266341</v>
+        <v>1.2613075627266359</v>
       </c>
       <c r="AF11">
         <f t="shared" si="16"/>
-        <v>1.0691878677417825</v>
+        <v>1.0691878677417841</v>
       </c>
       <c r="AG11">
         <f t="shared" si="17"/>
@@ -2311,13 +2311,13 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>7.6412981227157298E-2</v>
+        <v>7.6412981227152843E-2</v>
       </c>
       <c r="N12">
-        <v>2.8467348792993698E-2</v>
+        <v>2.8467348792993799E-2</v>
       </c>
       <c r="O12">
-        <v>9.4151659392258304E-3</v>
+        <v>9.4151659392257923E-3</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -2377,15 +2377,15 @@
       </c>
       <c r="AD12">
         <f t="shared" si="14"/>
-        <v>0.65368693144095358</v>
+        <v>0.65368693144095402</v>
       </c>
       <c r="AE12">
         <f t="shared" si="15"/>
-        <v>1.4560842738172584</v>
+        <v>1.4560842738172592</v>
       </c>
       <c r="AF12">
         <f t="shared" si="16"/>
-        <v>1.3312770503472076</v>
+        <v>1.3312770503472084</v>
       </c>
       <c r="AG12">
         <f t="shared" si="17"/>
@@ -2427,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.12167354440773399</v>
+        <v>0.1216735444077295</v>
       </c>
       <c r="N13">
-        <v>4.0853432167868901E-2</v>
+        <v>4.0853432167868978E-2</v>
       </c>
       <c r="O13">
-        <v>1.6405428624433799E-2</v>
+        <v>1.6405428624433779E-2</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -2493,15 +2493,15 @@
       </c>
       <c r="AD13">
         <f t="shared" si="14"/>
-        <v>0.80239734237630489</v>
+        <v>0.80239734237630533</v>
       </c>
       <c r="AE13">
         <f t="shared" si="15"/>
-        <v>1.5502181495055385</v>
+        <v>1.5502181495055394</v>
       </c>
       <c r="AF13">
         <f t="shared" si="16"/>
-        <v>1.4173423081193495</v>
+        <v>1.4173423081193504</v>
       </c>
       <c r="AG13">
         <f t="shared" si="17"/>
@@ -2543,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.6237530471290703E-2</v>
+        <v>9.6237530471286664E-2</v>
       </c>
       <c r="N14">
-        <v>3.6898920752728902E-2</v>
+        <v>3.6898920752728943E-2</v>
       </c>
       <c r="O14">
-        <v>1.28246691179095E-2</v>
+        <v>1.2824669117909519E-2</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -2609,15 +2609,15 @@
       </c>
       <c r="AD14">
         <f t="shared" si="14"/>
-        <v>0.7478208071292336</v>
+        <v>0.74782080712923404</v>
       </c>
       <c r="AE14">
         <f t="shared" si="15"/>
-        <v>1.5344728908925092</v>
+        <v>1.5344728908925096</v>
       </c>
       <c r="AF14">
         <f t="shared" si="16"/>
-        <v>1.4232792031466752</v>
+        <v>1.4232792031466757</v>
       </c>
       <c r="AG14">
         <f t="shared" si="17"/>
@@ -2659,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.14458474194996199</v>
+        <v>0.1445847419499571</v>
       </c>
       <c r="N15">
-        <v>4.6171524393291398E-2</v>
+        <v>4.6171524393291349E-2</v>
       </c>
       <c r="O15">
-        <v>1.00924272169635E-2</v>
+        <v>1.009242721696353E-2</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -2725,15 +2725,15 @@
       </c>
       <c r="AD15">
         <f t="shared" si="14"/>
-        <v>0.78665208376327567</v>
+        <v>0.78665208376327556</v>
       </c>
       <c r="AE15">
         <f t="shared" si="15"/>
-        <v>1.5513477103195994</v>
+        <v>1.5513477103196007</v>
       </c>
       <c r="AF15">
         <f t="shared" si="16"/>
-        <v>1.449434357086925</v>
+        <v>1.4494343570869261</v>
       </c>
       <c r="AG15">
         <f t="shared" si="17"/>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.0052664310803504E-2</v>
+        <v>8.0052664310800284E-2</v>
       </c>
       <c r="N16">
-        <v>4.1363432783999302E-2</v>
+        <v>4.1363432783999413E-2</v>
       </c>
       <c r="O16">
-        <v>1.11481790687712E-2</v>
+        <v>1.1148179068771261E-2</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -2841,15 +2841,15 @@
       </c>
       <c r="AD16">
         <f t="shared" si="14"/>
-        <v>0.76469562655632384</v>
+        <v>0.76469562655632506</v>
       </c>
       <c r="AE16">
         <f t="shared" si="15"/>
-        <v>1.49973288443665</v>
+        <v>1.4997328844366513</v>
       </c>
       <c r="AF16">
         <f t="shared" si="16"/>
-        <v>1.4219689570954903</v>
+        <v>1.4219689570954916</v>
       </c>
       <c r="AG16">
         <f t="shared" si="17"/>
@@ -2891,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.11862954242033701</v>
+        <v>0.1186295424203333</v>
       </c>
       <c r="N17">
-        <v>3.9615837631266103E-2</v>
+        <v>3.9615837631266138E-2</v>
       </c>
       <c r="O17">
-        <v>9.20169152403638E-3</v>
+        <v>9.2016915240363817E-3</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -2957,15 +2957,15 @@
       </c>
       <c r="AD17">
         <f t="shared" si="14"/>
-        <v>0.73503725788032603</v>
+        <v>0.73503725788032626</v>
       </c>
       <c r="AE17">
         <f t="shared" si="15"/>
-        <v>1.4019689446033583</v>
+        <v>1.4019689446033592</v>
       </c>
       <c r="AF17">
         <f t="shared" si="16"/>
-        <v>1.329274258586888</v>
+        <v>1.3292742585868886</v>
       </c>
       <c r="AG17">
         <f t="shared" si="17"/>
@@ -3007,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.110153711123319</v>
+        <v>0.11015371112331521</v>
       </c>
       <c r="N18">
-        <v>3.0400304708570001E-2</v>
+        <v>3.040030470857006E-2</v>
       </c>
       <c r="O18">
-        <v>9.1737203096597698E-3</v>
+        <v>9.1737203096597941E-3</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -3073,15 +3073,15 @@
       </c>
       <c r="AD18">
         <f t="shared" si="14"/>
-        <v>0.66693168672303227</v>
+        <v>0.66693168672303282</v>
       </c>
       <c r="AE18">
         <f t="shared" si="15"/>
-        <v>1.4558702952657829</v>
+        <v>1.4558702952657838</v>
       </c>
       <c r="AF18">
         <f t="shared" si="16"/>
-        <v>1.3310814128144302</v>
+        <v>1.3310814128144308</v>
       </c>
       <c r="AG18">
         <f t="shared" si="17"/>
@@ -3123,13 +3123,13 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.15812781618542501</v>
+        <v>0.1581278161854178</v>
       </c>
       <c r="N19">
-        <v>4.2628490939451702E-2</v>
+        <v>4.2628490939451681E-2</v>
       </c>
       <c r="O19">
-        <v>1.3042574552498E-2</v>
+        <v>1.3042574552498069E-2</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
@@ -3189,15 +3189,15 @@
       </c>
       <c r="AD19">
         <f t="shared" si="14"/>
-        <v>0.78893860854275066</v>
+        <v>0.78893860854275111</v>
       </c>
       <c r="AE19">
         <f t="shared" si="15"/>
-        <v>1.4602254316741718</v>
+        <v>1.4602254316741727</v>
       </c>
       <c r="AF19">
         <f t="shared" si="16"/>
-        <v>1.2714888112537006</v>
+        <v>1.2714888112537015</v>
       </c>
       <c r="AG19">
         <f t="shared" si="17"/>
@@ -3239,13 +3239,13 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.108532533057425</v>
+        <v>0.1085325330574184</v>
       </c>
       <c r="N20">
-        <v>2.9855767440339302E-2</v>
+        <v>2.9855767440339291E-2</v>
       </c>
       <c r="O20">
-        <v>1.00990197255402E-2</v>
+        <v>1.009901972554025E-2</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
@@ -3305,15 +3305,15 @@
       </c>
       <c r="AD20">
         <f t="shared" si="14"/>
-        <v>0.67128682313142107</v>
+        <v>0.67128682313142152</v>
       </c>
       <c r="AE20">
         <f t="shared" si="15"/>
-        <v>1.3804088642202186</v>
+        <v>1.3804088642202195</v>
       </c>
       <c r="AF20">
         <f t="shared" si="16"/>
-        <v>1.0773922842694388</v>
+        <v>1.0773922842694397</v>
       </c>
       <c r="AG20">
         <f t="shared" si="17"/>
@@ -3355,13 +3355,13 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>0.15831037534630399</v>
+        <v>0.15831037534629441</v>
       </c>
       <c r="N21">
-        <v>3.4830104686370801E-2</v>
+        <v>3.4830104686370732E-2</v>
       </c>
       <c r="O21">
-        <v>1.00681415346505E-2</v>
+        <v>1.0068141534650601E-2</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
@@ -3421,15 +3421,15 @@
       </c>
       <c r="AD21">
         <f t="shared" si="14"/>
-        <v>0.70912204108879762</v>
+        <v>0.70912204108879806</v>
       </c>
       <c r="AE21">
         <f t="shared" si="15"/>
-        <v>1.3982076554074605</v>
+        <v>1.3982076554074574</v>
       </c>
       <c r="AF21">
         <f t="shared" si="16"/>
-        <v>0.87730676417723008</v>
+        <v>0.87730676417722819</v>
       </c>
       <c r="AG21">
         <f t="shared" si="17"/>
@@ -3471,13 +3471,13 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <v>7.6629307935904306E-2</v>
+        <v>7.6629307935887819E-2</v>
       </c>
       <c r="N22">
-        <v>3.4885034217555802E-2</v>
+        <v>3.488503421755542E-2</v>
       </c>
       <c r="O22">
-        <v>7.9663006860645098E-3</v>
+        <v>7.9663006860644335E-3</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
@@ -3537,15 +3537,15 @@
       </c>
       <c r="AD22">
         <f t="shared" si="14"/>
-        <v>0.689085614318663</v>
+        <v>0.68908561431865945</v>
       </c>
       <c r="AE22">
         <f t="shared" si="15"/>
-        <v>1.246930695314413</v>
+        <v>1.246930695314411</v>
       </c>
       <c r="AF22">
         <f t="shared" si="16"/>
-        <v>0.7600339476202137</v>
+        <v>0.76003394762021248</v>
       </c>
       <c r="AG22">
         <f t="shared" si="17"/>
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.2029363548774599E-2</v>
+        <v>6.2029363548785653E-2</v>
       </c>
       <c r="N23">
-        <v>2.5488957030315701E-2</v>
+        <v>2.5488957030315972E-2</v>
       </c>
       <c r="O23">
-        <v>3.4626407676506899E-3</v>
+        <v>3.4626407676506391E-3</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
@@ -3653,15 +3653,15 @@
       </c>
       <c r="AD23">
         <f t="shared" si="14"/>
-        <v>0.55784508099575003</v>
+        <v>0.55784508099575159</v>
       </c>
       <c r="AE23">
         <f t="shared" si="15"/>
-        <v>0.91535468762468453</v>
+        <v>0.9153546876246883</v>
       </c>
       <c r="AF23">
         <f t="shared" si="16"/>
-        <v>0.5138833334033317</v>
+        <v>0.51388333340333381</v>
       </c>
       <c r="AG23">
         <f t="shared" si="17"/>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.1482058725005098E-2</v>
+        <v>3.1482058725023583E-2</v>
       </c>
       <c r="N24">
-        <v>1.0795372778602199E-2</v>
+        <v>1.079537277860248E-2</v>
       </c>
       <c r="O24">
-        <v>1.2047531843859499E-3</v>
+        <v>1.2047531843858901E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
@@ -3769,15 +3769,15 @@
       </c>
       <c r="AD24">
         <f t="shared" si="14"/>
-        <v>0.3575096066289345</v>
+        <v>0.35750960662893666</v>
       </c>
       <c r="AE24">
         <f t="shared" si="15"/>
-        <v>0.97168574936568586</v>
+        <v>0.9716857493656883</v>
       </c>
       <c r="AF24">
         <f t="shared" si="16"/>
-        <v>0.71480330987820573</v>
+        <v>0.7148033098782075</v>
       </c>
       <c r="AG24">
         <f t="shared" si="17"/>
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.327730141174E-2</v>
+        <v>4.3277301411741853E-2</v>
       </c>
       <c r="N25">
-        <v>2.7409281301773E-2</v>
+        <v>2.740928130177302E-2</v>
       </c>
       <c r="O25">
-        <v>6.4608765861509203E-3</v>
+        <v>6.460876586150929E-3</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
@@ -3885,15 +3885,15 @@
       </c>
       <c r="AD25">
         <f t="shared" si="14"/>
-        <v>0.61417614273675136</v>
+        <v>0.6141761427367517</v>
       </c>
       <c r="AE25">
         <f t="shared" si="15"/>
-        <v>1.4571818809886641</v>
+        <v>1.457181880988665</v>
       </c>
       <c r="AF25">
         <f t="shared" si="16"/>
-        <v>1.6219067892743391</v>
+        <v>1.6219067892743402</v>
       </c>
       <c r="AG25">
         <f t="shared" si="17"/>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>7.5555768481319605E-2</v>
+        <v>7.5555768481317079E-2</v>
       </c>
       <c r="N26">
-        <v>3.8238233339475E-2</v>
+        <v>3.823823333947509E-2</v>
       </c>
       <c r="O26">
-        <v>2.5778767301743801E-2</v>
+        <v>2.5778767301743791E-2</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -4001,15 +4001,15 @@
       </c>
       <c r="AD26">
         <f t="shared" si="14"/>
-        <v>0.84300573825191272</v>
+        <v>0.84300573825191338</v>
       </c>
       <c r="AE26">
         <f t="shared" si="15"/>
-        <v>1.6022556053130712</v>
+        <v>1.6022556053130717</v>
       </c>
       <c r="AF26">
         <f t="shared" si="16"/>
-        <v>1.4442867428174162</v>
+        <v>1.4442867428174166</v>
       </c>
       <c r="AG26">
         <f t="shared" si="17"/>
@@ -4051,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.12867086411886</v>
+        <v>0.1286708641188572</v>
       </c>
       <c r="N27">
-        <v>4.3468028815114398E-2</v>
+        <v>4.3468028815114378E-2</v>
       </c>
       <c r="O27">
-        <v>9.0324597776584598E-3</v>
+        <v>9.032459777658439E-3</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -4117,15 +4117,15 @@
       </c>
       <c r="AD27">
         <f t="shared" si="14"/>
-        <v>0.75924986706115849</v>
+        <v>0.75924986706115816</v>
       </c>
       <c r="AE27">
         <f t="shared" si="15"/>
-        <v>1.4777253090598939</v>
+        <v>1.4777253090598936</v>
       </c>
       <c r="AF27">
         <f t="shared" si="16"/>
-        <v>1.380648463939171</v>
+        <v>1.3806484639391707</v>
       </c>
       <c r="AG27">
         <f t="shared" si="17"/>
@@ -4167,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.111974538168037</v>
+        <v>0.1119745381680351</v>
       </c>
       <c r="N28">
-        <v>3.5873294652913397E-2</v>
+        <v>3.5873294652913439E-2</v>
       </c>
       <c r="O28">
-        <v>1.02577946879987E-2</v>
+        <v>1.0257794687998711E-2</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
@@ -4233,15 +4233,15 @@
       </c>
       <c r="AD28">
         <f t="shared" si="14"/>
-        <v>0.71847544199873536</v>
+        <v>0.71847544199873559</v>
       </c>
       <c r="AE28">
         <f t="shared" si="15"/>
-        <v>1.4767568692485966</v>
+        <v>1.4767568692485971</v>
       </c>
       <c r="AF28">
         <f t="shared" si="16"/>
-        <v>1.3898888181163263</v>
+        <v>1.3898888181163267</v>
       </c>
       <c r="AG28">
         <f t="shared" si="17"/>
@@ -4283,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.112019152742487</v>
+        <v>0.112019152742485</v>
       </c>
       <c r="N29">
-        <v>4.2453237182717998E-2</v>
+        <v>4.2453237182718019E-2</v>
       </c>
       <c r="O29">
-        <v>9.6318573836006605E-3</v>
+        <v>9.6318573836006536E-3</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
@@ -4349,15 +4349,15 @@
       </c>
       <c r="AD29">
         <f t="shared" si="14"/>
-        <v>0.75828142724986125</v>
+        <v>0.75828142724986136</v>
       </c>
       <c r="AE29">
         <f t="shared" si="15"/>
-        <v>1.4843752026277883</v>
+        <v>1.484375202627789</v>
       </c>
       <c r="AF29">
         <f t="shared" si="16"/>
-        <v>1.3970590142379185</v>
+        <v>1.3970590142379191</v>
       </c>
       <c r="AG29">
         <f t="shared" si="17"/>
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.10167208274348299</v>
+        <v>0.1016720827434815</v>
       </c>
       <c r="N30">
-        <v>3.9618052658316097E-2</v>
+        <v>3.9618052658316173E-2</v>
       </c>
       <c r="O30">
-        <v>8.2935386156996194E-3</v>
+        <v>8.2935386156996246E-3</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
@@ -4465,15 +4465,15 @@
       </c>
       <c r="AD30">
         <f t="shared" si="14"/>
-        <v>0.72609377537792708</v>
+        <v>0.72609377537792763</v>
       </c>
       <c r="AE30">
         <f t="shared" si="15"/>
-        <v>1.4921544689810031</v>
+        <v>1.492154468981004</v>
       </c>
       <c r="AF30">
         <f t="shared" si="16"/>
-        <v>1.394129722843565</v>
+        <v>1.3941297228435658</v>
       </c>
       <c r="AG30">
         <f t="shared" si="17"/>
@@ -4515,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.12187064107524299</v>
+        <v>0.12187064107524161</v>
       </c>
       <c r="N31">
-        <v>4.09674922512068E-2</v>
+        <v>4.0967492251206883E-2</v>
       </c>
       <c r="O31">
         <v>1.16169274922968E-2</v>
@@ -4581,15 +4581,15 @@
       </c>
       <c r="AD31">
         <f t="shared" si="14"/>
-        <v>0.76606069360307594</v>
+        <v>0.76606069360307649</v>
       </c>
       <c r="AE31">
         <f t="shared" si="15"/>
-        <v>1.5151186385184094</v>
+        <v>1.5151186385184108</v>
       </c>
       <c r="AF31">
         <f t="shared" si="16"/>
-        <v>1.3952171635277439</v>
+        <v>1.3952171635277453</v>
       </c>
       <c r="AG31">
         <f t="shared" si="17"/>
@@ -4631,13 +4631,13 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.6296404707321301E-2</v>
+        <v>9.6296404707319178E-2</v>
       </c>
       <c r="N32">
-        <v>4.2529853674530799E-2</v>
+        <v>4.2529853674530937E-2</v>
       </c>
       <c r="O32">
-        <v>8.6235646554146603E-3</v>
+        <v>8.6235646554146481E-3</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
@@ -4697,15 +4697,15 @@
       </c>
       <c r="AD32">
         <f t="shared" si="14"/>
-        <v>0.7490579449153334</v>
+        <v>0.74905794491533428</v>
       </c>
       <c r="AE32">
         <f t="shared" si="15"/>
-        <v>1.4952631460392434</v>
+        <v>1.4952631460392447</v>
       </c>
       <c r="AF32">
         <f t="shared" si="16"/>
-        <v>1.3109156348837203</v>
+        <v>1.3109156348837214</v>
       </c>
       <c r="AG32">
         <f t="shared" si="17"/>
@@ -4747,13 +4747,13 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.132220872564837</v>
+        <v>0.13222087256483339</v>
       </c>
       <c r="N33">
-        <v>4.01323329059836E-2</v>
+        <v>4.0132332905983517E-2</v>
       </c>
       <c r="O33">
-        <v>1.0013282891353E-2</v>
+        <v>1.0013282891353109E-2</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -4813,15 +4813,15 @@
       </c>
       <c r="AD33">
         <f t="shared" si="14"/>
-        <v>0.74620520112391009</v>
+        <v>0.74620520112391053</v>
       </c>
       <c r="AE33">
         <f t="shared" si="15"/>
-        <v>1.4496983784918835</v>
+        <v>1.4496983784918842</v>
       </c>
       <c r="AF33">
         <f t="shared" si="16"/>
-        <v>1.2370759496464072</v>
+        <v>1.2370759496464079</v>
       </c>
       <c r="AG33">
         <f t="shared" si="17"/>
@@ -4863,13 +4863,13 @@
         <v>2</v>
       </c>
       <c r="M34">
-        <v>0.135290423185673</v>
+        <v>0.13529042318566939</v>
       </c>
       <c r="N34">
-        <v>3.0894593995357499E-2</v>
+        <v>3.0894593995357471E-2</v>
       </c>
       <c r="O34">
-        <v>1.2895639994670499E-2</v>
+        <v>1.289563999467057E-2</v>
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
@@ -4929,15 +4929,15 @@
       </c>
       <c r="AD34">
         <f t="shared" si="14"/>
-        <v>0.70349317736797345</v>
+        <v>0.70349317736797379</v>
       </c>
       <c r="AE34">
         <f t="shared" si="15"/>
-        <v>1.3142722459577363</v>
+        <v>1.3142722459577367</v>
       </c>
       <c r="AF34">
         <f t="shared" si="16"/>
-        <v>1.0448872514446599</v>
+        <v>1.0448872514446603</v>
       </c>
       <c r="AG34">
         <f t="shared" si="17"/>
@@ -4979,13 +4979,13 @@
         <v>2</v>
       </c>
       <c r="M35">
-        <v>0.13941020702346599</v>
+        <v>0.13941020702346121</v>
       </c>
       <c r="N35">
-        <v>1.8539210069253E-2</v>
+        <v>1.8539210069252909E-2</v>
       </c>
       <c r="O35">
-        <v>1.51011358869947E-2</v>
+        <v>1.510113588699483E-2</v>
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
@@ -5045,15 +5045,15 @@
       </c>
       <c r="AD35">
         <f t="shared" si="14"/>
-        <v>0.61077906858976272</v>
+        <v>0.61077906858976283</v>
       </c>
       <c r="AE35">
         <f t="shared" si="15"/>
-        <v>1.1955975241584818</v>
+        <v>1.1955975241584829</v>
       </c>
       <c r="AF35">
         <f t="shared" si="16"/>
-        <v>0.94466964871781278</v>
+        <v>0.94466964871781367</v>
       </c>
       <c r="AG35">
         <f t="shared" si="17"/>
@@ -5095,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>5.7214055563590403E-2</v>
+        <v>5.7214055563588398E-2</v>
       </c>
       <c r="N36">
-        <v>2.64126683628081E-2</v>
+        <v>2.6412668362808239E-2</v>
       </c>
       <c r="O36">
-        <v>4.7722506858513701E-3</v>
+        <v>4.7722506858513493E-3</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
@@ -5161,15 +5161,15 @@
       </c>
       <c r="AD36">
         <f t="shared" si="14"/>
-        <v>0.58481845556871914</v>
+        <v>0.58481845556872003</v>
       </c>
       <c r="AE36">
         <f t="shared" si="15"/>
-        <v>1.3806128017425228</v>
+        <v>1.3806128017425237</v>
       </c>
       <c r="AF36">
         <f t="shared" si="16"/>
-        <v>1.1703207855830657</v>
+        <v>1.1703207855830664</v>
       </c>
       <c r="AG36">
         <f t="shared" si="17"/>
@@ -5211,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.109632421058294</v>
+        <v>0.1096324210582923</v>
       </c>
       <c r="N37">
-        <v>3.7578781655690903E-2</v>
+        <v>3.7578781655690889E-2</v>
       </c>
       <c r="O37">
-        <v>1.8747639909497901E-2</v>
+        <v>1.8747639909497921E-2</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
@@ -5281,11 +5281,11 @@
       </c>
       <c r="AE37">
         <f t="shared" si="15"/>
-        <v>1.5622259583000411</v>
+        <v>1.5622259583000422</v>
       </c>
       <c r="AF37">
         <f t="shared" si="16"/>
-        <v>1.3886452962667031</v>
+        <v>1.3886452962667042</v>
       </c>
       <c r="AG37">
         <f t="shared" si="17"/>
@@ -5327,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>9.6426098609545902E-2</v>
+        <v>9.6426098609544389E-2</v>
       </c>
       <c r="N38">
-        <v>3.3442082006951201E-2</v>
+        <v>3.3442082006951299E-2</v>
       </c>
       <c r="O38">
-        <v>1.8869501013576501E-2</v>
+        <v>1.886950101357656E-2</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
@@ -5393,15 +5393,15 @@
       </c>
       <c r="AD38">
         <f t="shared" si="14"/>
-        <v>0.76643161212623734</v>
+        <v>0.76643161212623845</v>
       </c>
       <c r="AE38">
         <f t="shared" si="15"/>
-        <v>1.4986516301765911</v>
+        <v>1.4986516301765929</v>
       </c>
       <c r="AF38">
         <f t="shared" si="16"/>
-        <v>1.4002000632306837</v>
+        <v>1.4002000632306852</v>
       </c>
       <c r="AG38">
         <f t="shared" si="17"/>
@@ -5443,13 +5443,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.13536833368592399</v>
+        <v>0.13536833368592269</v>
       </c>
       <c r="N39">
-        <v>3.8907643633814798E-2</v>
+        <v>3.8907643633814853E-2</v>
       </c>
       <c r="O39">
-        <v>9.4192875442808393E-3</v>
+        <v>9.4192875442808636E-3</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
@@ -5509,15 +5509,15 @@
       </c>
       <c r="AD39">
         <f t="shared" si="14"/>
-        <v>0.73222001805035375</v>
+        <v>0.73222001805035442</v>
       </c>
       <c r="AE39">
         <f t="shared" si="15"/>
-        <v>1.4140286367302601</v>
+        <v>1.414028636730261</v>
       </c>
       <c r="AF39">
         <f t="shared" si="16"/>
-        <v>1.3308504816284801</v>
+        <v>1.330850481628481</v>
       </c>
       <c r="AG39">
         <f t="shared" si="17"/>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>7.7178263504173894E-2</v>
+        <v>7.7178263504172839E-2</v>
       </c>
       <c r="N40">
-        <v>3.4636784470409097E-2</v>
+        <v>3.4636784470409167E-2</v>
       </c>
       <c r="O40">
-        <v>7.44884518282222E-3</v>
+        <v>7.4488451828222191E-3</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
@@ -5625,15 +5625,15 @@
       </c>
       <c r="AD40">
         <f t="shared" si="14"/>
-        <v>0.68180861867990628</v>
+        <v>0.68180861867990672</v>
       </c>
       <c r="AE40">
         <f t="shared" si="15"/>
-        <v>1.4379529434759775</v>
+        <v>1.4379529434759779</v>
       </c>
       <c r="AF40">
         <f t="shared" si="16"/>
-        <v>1.3434888814958037</v>
+        <v>1.3434888814958041</v>
       </c>
       <c r="AG40">
         <f t="shared" si="17"/>
@@ -5675,13 +5675,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.126812110684245</v>
+        <v>0.12681211068424389</v>
       </c>
       <c r="N41">
-        <v>4.2459035602807498E-2</v>
+        <v>4.2459035602807463E-2</v>
       </c>
       <c r="O41">
-        <v>9.4014451238413708E-3</v>
+        <v>9.4014451238413899E-3</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
@@ -5741,15 +5741,15 @@
       </c>
       <c r="AD41">
         <f t="shared" si="14"/>
-        <v>0.75614432479607119</v>
+        <v>0.75614432479607108</v>
       </c>
       <c r="AE41">
         <f t="shared" si="15"/>
-        <v>1.4321824419772466</v>
+        <v>1.4321824419772471</v>
       </c>
       <c r="AF41">
         <f t="shared" si="16"/>
-        <v>1.3479364159785852</v>
+        <v>1.3479364159785856</v>
       </c>
       <c r="AG41">
         <f t="shared" si="17"/>
@@ -5791,13 +5791,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>8.2554701226024901E-2</v>
+        <v>8.2554701226023902E-2</v>
       </c>
       <c r="N42">
-        <v>3.16203338662773E-2</v>
+        <v>3.1620333866277398E-2</v>
       </c>
       <c r="O42">
-        <v>9.1275873508561405E-3</v>
+        <v>9.1275873508561197E-3</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
@@ -5857,15 +5857,15 @@
       </c>
       <c r="AD42">
         <f t="shared" si="14"/>
-        <v>0.67603811718117546</v>
+        <v>0.67603811718117601</v>
       </c>
       <c r="AE42">
         <f t="shared" si="15"/>
-        <v>1.428891677079297</v>
+        <v>1.4288916770792983</v>
       </c>
       <c r="AF42">
         <f t="shared" si="16"/>
-        <v>1.3253488019286233</v>
+        <v>1.3253488019286246</v>
       </c>
       <c r="AG42">
         <f t="shared" si="17"/>
@@ -5907,13 +5907,13 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.13547869710112501</v>
+        <v>0.1354786971011242</v>
       </c>
       <c r="N43">
-        <v>3.7839960613681001E-2</v>
+        <v>3.783996061368098E-2</v>
       </c>
       <c r="O43">
-        <v>1.2622134857222101E-2</v>
+        <v>1.26221348572222E-2</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
@@ -5973,15 +5973,15 @@
       </c>
       <c r="AD43">
         <f t="shared" si="14"/>
-        <v>0.75285355989812153</v>
+        <v>0.7528535598981223</v>
       </c>
       <c r="AE43">
         <f t="shared" si="15"/>
-        <v>1.4735807362728361</v>
+        <v>1.473580736272837</v>
       </c>
       <c r="AF43">
         <f t="shared" si="16"/>
-        <v>1.2327995702151833</v>
+        <v>1.2327995702151839</v>
       </c>
       <c r="AG43">
         <f t="shared" si="17"/>
@@ -6023,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0.12948324831014801</v>
+        <v>0.12948324831014629</v>
       </c>
       <c r="N44">
-        <v>3.4395364244230502E-2</v>
+        <v>3.4395364244230398E-2</v>
       </c>
       <c r="O44">
-        <v>1.17512416907142E-2</v>
+        <v>1.175124169071432E-2</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
@@ -6089,15 +6089,15 @@
       </c>
       <c r="AD44">
         <f t="shared" si="14"/>
-        <v>0.72072717637471451</v>
+        <v>0.72072717637471473</v>
       </c>
       <c r="AE44">
         <f t="shared" si="15"/>
-        <v>1.4444315076912715</v>
+        <v>1.4444315076912708</v>
       </c>
       <c r="AF44">
         <f t="shared" si="16"/>
-        <v>1.0812118887981448</v>
+        <v>1.0812118887981443</v>
       </c>
       <c r="AG44">
         <f t="shared" si="17"/>
@@ -6139,13 +6139,13 @@
         <v>2</v>
       </c>
       <c r="M45">
-        <v>0.13971923538089201</v>
+        <v>0.13971923538089071</v>
       </c>
       <c r="N45">
-        <v>4.2783585945824702E-2</v>
+        <v>4.2783585945824612E-2</v>
       </c>
       <c r="O45">
-        <v>6.1222914546346903E-3</v>
+        <v>6.1222914546346652E-3</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
@@ -6205,15 +6205,15 @@
       </c>
       <c r="AD45">
         <f t="shared" si="14"/>
-        <v>0.72370433131655709</v>
+        <v>0.72370433131655609</v>
       </c>
       <c r="AE45">
         <f t="shared" si="15"/>
-        <v>1.0613663235582864</v>
+        <v>1.0613663235582853</v>
       </c>
       <c r="AF45">
         <f t="shared" si="16"/>
-        <v>0.9305129412017854</v>
+        <v>0.9305129412017844</v>
       </c>
       <c r="AG45">
         <f t="shared" si="17"/>
@@ -6255,13 +6255,13 @@
         <v>2</v>
       </c>
       <c r="M46">
-        <v>2.70391197178479E-2</v>
+        <v>2.7039119717847261E-2</v>
       </c>
       <c r="N46">
-        <v>6.2051931563538703E-3</v>
+        <v>6.2051931563538599E-3</v>
       </c>
       <c r="O46">
-        <v>3.8272331178709098E-3</v>
+        <v>3.827233117870919E-3</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
@@ -6321,15 +6321,15 @@
       </c>
       <c r="AD46">
         <f t="shared" si="14"/>
-        <v>0.33766199224172927</v>
+        <v>0.33766199224172921</v>
       </c>
       <c r="AE46">
         <f t="shared" si="15"/>
-        <v>0.69667294949064607</v>
+        <v>0.69667294949064629</v>
       </c>
       <c r="AF46">
         <f t="shared" si="16"/>
-        <v>0.73093555356395656</v>
+        <v>0.73093555356395679</v>
       </c>
       <c r="AG46">
         <f t="shared" si="17"/>
@@ -6371,13 +6371,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1.11503032939375E-2</v>
+        <v>1.115030329393802E-2</v>
       </c>
       <c r="N47">
-        <v>6.5531746262862496E-3</v>
+        <v>6.5531746262862296E-3</v>
       </c>
       <c r="O47">
-        <v>4.9079506256077101E-3</v>
+        <v>4.9079506256077612E-3</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
@@ -6437,15 +6437,15 @@
       </c>
       <c r="AD47">
         <f t="shared" si="14"/>
-        <v>0.3590109572489168</v>
+        <v>0.35901095724891713</v>
       </c>
       <c r="AE47">
         <f t="shared" si="15"/>
-        <v>0.81357214904873032</v>
+        <v>0.81357214904873509</v>
       </c>
       <c r="AF47">
         <f t="shared" si="16"/>
-        <v>0.6468151247095496</v>
+        <v>0.64681512470955338</v>
       </c>
       <c r="AG47">
         <f t="shared" si="17"/>
@@ -6487,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>4.2020496759296602E-2</v>
+        <v>4.2020496759298059E-2</v>
       </c>
       <c r="N48">
-        <v>1.4417582080388101E-2</v>
+        <v>1.441758208038842E-2</v>
       </c>
       <c r="O48">
-        <v>3.9059202545879399E-3</v>
+        <v>3.9059202545879889E-3</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
@@ -6553,15 +6553,15 @@
       </c>
       <c r="AD48">
         <f t="shared" si="14"/>
-        <v>0.45456119179981352</v>
+        <v>0.45456119179981791</v>
       </c>
       <c r="AE48">
         <f t="shared" si="15"/>
-        <v>1.0735595675218932</v>
+        <v>1.0735595675218979</v>
       </c>
       <c r="AF48">
         <f t="shared" si="16"/>
-        <v>0.98154017602001664</v>
+        <v>0.98154017602002086</v>
       </c>
       <c r="AG48">
         <f t="shared" si="17"/>
@@ -6603,13 +6603,13 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>4.5124974676732703E-2</v>
+        <v>4.512497467673298E-2</v>
       </c>
       <c r="N49">
-        <v>3.1879481512108301E-2</v>
+        <v>3.1879481512108329E-2</v>
       </c>
       <c r="O49">
-        <v>4.0526042071967897E-3</v>
+        <v>4.0526042071968027E-3</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
@@ -6669,15 +6669,15 @@
       </c>
       <c r="AD49">
         <f t="shared" si="14"/>
-        <v>0.61899837572207961</v>
+        <v>0.61899837572208005</v>
       </c>
       <c r="AE49">
         <f t="shared" si="15"/>
-        <v>1.4351370688121325</v>
+        <v>1.4351370688121343</v>
       </c>
       <c r="AF49">
         <f t="shared" si="16"/>
-        <v>1.493475974048398</v>
+        <v>1.4934759740484</v>
       </c>
       <c r="AG49">
         <f t="shared" si="17"/>
@@ -6719,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>7.9325870298523102E-2</v>
+        <v>7.9325870298522852E-2</v>
       </c>
       <c r="N50">
-        <v>4.0731663391231798E-2</v>
+        <v>4.073166339123193E-2</v>
       </c>
       <c r="O50">
-        <v>1.8523999421210999E-2</v>
+        <v>1.8523999421211031E-2</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
@@ -6785,15 +6785,15 @@
       </c>
       <c r="AD50">
         <f t="shared" si="14"/>
-        <v>0.81613869309005305</v>
+        <v>0.81613869309005416</v>
       </c>
       <c r="AE50">
         <f t="shared" si="15"/>
-        <v>1.5885766438355846</v>
+        <v>1.5885766438355868</v>
       </c>
       <c r="AF50">
         <f t="shared" si="16"/>
-        <v>1.3832504109588764</v>
+        <v>1.3832504109588784</v>
       </c>
       <c r="AG50">
         <f t="shared" si="17"/>
@@ -6835,13 +6835,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.102252422242644</v>
+        <v>0.10225242224264421</v>
       </c>
       <c r="N51">
-        <v>3.7161560206890799E-2</v>
+        <v>3.716156020689091E-2</v>
       </c>
       <c r="O51">
-        <v>1.5799794276725801E-2</v>
+        <v>1.5799794276725829E-2</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
@@ -6901,15 +6901,15 @@
       </c>
       <c r="AD51">
         <f t="shared" si="14"/>
-        <v>0.77243795074553145</v>
+        <v>0.77243795074553256</v>
       </c>
       <c r="AE51">
         <f t="shared" si="15"/>
-        <v>1.5422176947095889</v>
+        <v>1.5422176947095909</v>
       </c>
       <c r="AF51">
         <f t="shared" si="16"/>
-        <v>1.4622508512802028</v>
+        <v>1.4622508512802048</v>
       </c>
       <c r="AG51">
         <f t="shared" si="17"/>
@@ -6951,13 +6951,13 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>8.6688890915435399E-2</v>
+        <v>8.6688890915435454E-2</v>
       </c>
       <c r="N52">
-        <v>4.3411586910218999E-2</v>
+        <v>4.3411586910219048E-2</v>
       </c>
       <c r="O52">
-        <v>1.01922990525396E-2</v>
+        <v>1.0192299052539671E-2</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
@@ -7017,15 +7017,15 @@
       </c>
       <c r="AD52">
         <f t="shared" si="14"/>
-        <v>0.76977974396405735</v>
+        <v>0.76977974396405835</v>
       </c>
       <c r="AE52">
         <f t="shared" si="15"/>
-        <v>1.5343287829838892</v>
+        <v>1.5343287829838905</v>
       </c>
       <c r="AF52">
         <f t="shared" si="16"/>
-        <v>1.4766472497890062</v>
+        <v>1.4766472497890075</v>
       </c>
       <c r="AG52">
         <f t="shared" si="17"/>
@@ -7067,13 +7067,13 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0.121741238060892</v>
+        <v>0.121741238060893</v>
       </c>
       <c r="N53">
-        <v>4.2825731201866002E-2</v>
+        <v>4.2825731201865981E-2</v>
       </c>
       <c r="O53">
-        <v>1.0041627097906999E-2</v>
+        <v>1.004162709790705E-2</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
@@ -7133,15 +7133,15 @@
       </c>
       <c r="AD53">
         <f t="shared" si="14"/>
-        <v>0.76454903901983196</v>
+        <v>0.76454903901983229</v>
       </c>
       <c r="AE53">
         <f t="shared" si="15"/>
-        <v>1.5100833418132664</v>
+        <v>1.5100833418132678</v>
       </c>
       <c r="AF53">
         <f t="shared" si="16"/>
-        <v>1.4424676697917769</v>
+        <v>1.4424676697917782</v>
       </c>
       <c r="AG53">
         <f t="shared" si="17"/>
@@ -7183,10 +7183,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.101223911034453</v>
+        <v>0.1012239110344533</v>
       </c>
       <c r="N54">
-        <v>4.0326007202516799E-2</v>
+        <v>4.0326007202516917E-2</v>
       </c>
       <c r="O54">
         <v>9.7978525719340202E-3</v>
@@ -7249,15 +7249,15 @@
       </c>
       <c r="AD54">
         <f t="shared" si="14"/>
-        <v>0.74553430279343458</v>
+        <v>0.74553430279343547</v>
       </c>
       <c r="AE54">
         <f t="shared" si="15"/>
-        <v>1.4734915415502834</v>
+        <v>1.4734915415502845</v>
       </c>
       <c r="AF54">
         <f t="shared" si="16"/>
-        <v>1.4075143083465393</v>
+        <v>1.4075143083465405</v>
       </c>
       <c r="AG54">
         <f t="shared" si="17"/>
@@ -7299,13 +7299,13 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.113901337162175</v>
+        <v>0.1139013371621755</v>
       </c>
       <c r="N55">
-        <v>3.98014484794992E-2</v>
+        <v>3.9801448479499221E-2</v>
       </c>
       <c r="O55">
-        <v>8.3531833475747903E-3</v>
+        <v>8.3531833475748041E-3</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
@@ -7365,15 +7365,15 @@
       </c>
       <c r="AD55">
         <f t="shared" si="14"/>
-        <v>0.7279572387568487</v>
+        <v>0.72795723875684903</v>
       </c>
       <c r="AE55">
         <f t="shared" si="15"/>
-        <v>1.4511497949255088</v>
+        <v>1.451149794925509</v>
       </c>
       <c r="AF55">
         <f t="shared" si="16"/>
-        <v>1.3459940126845298</v>
+        <v>1.34599401268453</v>
       </c>
       <c r="AG55">
         <f t="shared" si="17"/>
@@ -7415,13 +7415,13 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0.112766551168516</v>
+        <v>0.1127665511685169</v>
       </c>
       <c r="N56">
         <v>3.8303574908677702E-2</v>
       </c>
       <c r="O56">
-        <v>8.9191170107249806E-3</v>
+        <v>8.9191170107249858E-3</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
@@ -7485,11 +7485,11 @@
       </c>
       <c r="AE56">
         <f t="shared" si="15"/>
-        <v>1.4763281619112729</v>
+        <v>1.4763281619112731</v>
       </c>
       <c r="AF56">
         <f t="shared" si="16"/>
-        <v>1.3214685645079924</v>
+        <v>1.3214685645079927</v>
       </c>
       <c r="AG56">
         <f t="shared" si="17"/>
@@ -7531,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0.141081195884905</v>
+        <v>0.14108119588490711</v>
       </c>
       <c r="N57">
-        <v>3.6987689236470403E-2</v>
+        <v>3.6987689236470382E-2</v>
       </c>
       <c r="O57">
-        <v>1.3410413588530699E-2</v>
+        <v>1.341041358853072E-2</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="AD57">
         <f t="shared" si="14"/>
-        <v>0.75313560574261296</v>
+        <v>0.75313560574261307</v>
       </c>
       <c r="AE57">
         <f t="shared" si="15"/>
@@ -7647,13 +7647,13 @@
         <v>2</v>
       </c>
       <c r="M58">
-        <v>0.15815947873750399</v>
+        <v>0.1581594787375061</v>
       </c>
       <c r="N58">
-        <v>4.4020370521569603E-2</v>
+        <v>4.4020370521569561E-2</v>
       </c>
       <c r="O58">
-        <v>2.69437815334253E-2</v>
+        <v>2.6943781533425339E-2</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
@@ -7713,15 +7713,15 @@
       </c>
       <c r="AD58">
         <f t="shared" si="14"/>
-        <v>0.88843459694092797</v>
+        <v>0.88843459694092786</v>
       </c>
       <c r="AE58">
         <f t="shared" si="15"/>
-        <v>1.4398638591640089</v>
+        <v>1.4398638591640083</v>
       </c>
       <c r="AF58">
         <f t="shared" si="16"/>
-        <v>1.1376702097098341</v>
+        <v>1.1376702097098337</v>
       </c>
       <c r="AG58">
         <f t="shared" si="17"/>
@@ -7763,13 +7763,13 @@
         <v>2</v>
       </c>
       <c r="M59">
-        <v>0.12866818817543799</v>
+        <v>0.12866818817544071</v>
       </c>
       <c r="N59">
-        <v>1.7985036902673501E-2</v>
+        <v>1.798503690267339E-2</v>
       </c>
       <c r="O59">
-        <v>8.7705711758299994E-3</v>
+        <v>8.7705711758300393E-3</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
@@ -7829,15 +7829,15 @@
       </c>
       <c r="AD59">
         <f t="shared" si="14"/>
-        <v>0.55142926222308097</v>
+        <v>0.55142926222308031</v>
       </c>
       <c r="AE59">
         <f t="shared" si="15"/>
-        <v>1.2809129292785155</v>
+        <v>1.2809129292785151</v>
       </c>
       <c r="AF59">
         <f t="shared" si="16"/>
-        <v>0.97593366040267848</v>
+        <v>0.97593366040267815</v>
       </c>
       <c r="AG59">
         <f t="shared" si="17"/>
@@ -7879,13 +7879,13 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>7.7025991464280602E-2</v>
+        <v>7.7025991464281976E-2</v>
       </c>
       <c r="N60">
-        <v>3.2746566749594301E-2</v>
+        <v>3.2746566749594273E-2</v>
       </c>
       <c r="O60">
-        <v>1.4387793369464E-2</v>
+        <v>1.4387793369464051E-2</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
@@ -7945,15 +7945,15 @@
       </c>
       <c r="AD60">
         <f t="shared" si="14"/>
-        <v>0.72948366705543455</v>
+        <v>0.72948366705543477</v>
       </c>
       <c r="AE60">
         <f t="shared" si="15"/>
-        <v>1.5035686560276846</v>
+        <v>1.5035686560276851</v>
       </c>
       <c r="AF60">
         <f t="shared" si="16"/>
-        <v>1.2104200501354945</v>
+        <v>1.2104200501354949</v>
       </c>
       <c r="AG60">
         <f t="shared" si="17"/>
@@ -7995,13 +7995,13 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>9.8336024715018705E-2</v>
+        <v>9.8336024715019982E-2</v>
       </c>
       <c r="N61">
-        <v>3.4322754411357299E-2</v>
+        <v>3.4322754411357272E-2</v>
       </c>
       <c r="O61">
-        <v>1.90325438136392E-2</v>
+        <v>1.9032543813639249E-2</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="AD61">
         <f t="shared" si="14"/>
-        <v>0.77408498897225009</v>
+        <v>0.7740849889722502</v>
       </c>
       <c r="AE61">
         <f t="shared" si="15"/>
@@ -8111,13 +8111,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>7.12461292469833E-2</v>
+        <v>7.1246129246984508E-2</v>
       </c>
       <c r="N62">
         <v>3.1665259814192798E-2</v>
       </c>
       <c r="O62">
-        <v>6.7145506542444101E-3</v>
+        <v>6.7145506542443979E-3</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
@@ -8177,15 +8177,15 @@
       </c>
       <c r="AD62">
         <f t="shared" si="14"/>
-        <v>0.65126860555760224</v>
+        <v>0.65126860555760213</v>
       </c>
       <c r="AE62">
         <f t="shared" si="15"/>
-        <v>1.4417090027261155</v>
+        <v>1.4417090027261157</v>
       </c>
       <c r="AF62">
         <f t="shared" si="16"/>
-        <v>1.2815191135343249</v>
+        <v>1.2815191135343251</v>
       </c>
       <c r="AG62">
         <f t="shared" si="17"/>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.12734964627034301</v>
+        <v>0.12734964627034509</v>
       </c>
       <c r="N63">
-        <v>4.6638045808942798E-2</v>
+        <v>4.6638045808942763E-2</v>
       </c>
       <c r="O63">
-        <v>1.01842389605827E-2</v>
+        <v>1.018423896058275E-2</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
@@ -8293,15 +8293,15 @@
       </c>
       <c r="AD63">
         <f t="shared" si="14"/>
-        <v>0.79044039716851322</v>
+        <v>0.79044039716851344</v>
       </c>
       <c r="AE63">
         <f t="shared" si="15"/>
-        <v>1.4743325988796152</v>
+        <v>1.4743325988796161</v>
       </c>
       <c r="AF63">
         <f t="shared" si="16"/>
-        <v>1.3479612332613624</v>
+        <v>1.3479612332613633</v>
       </c>
       <c r="AG63">
         <f t="shared" si="17"/>
@@ -8343,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>6.6586926472130603E-2</v>
+        <v>6.6586926472131741E-2</v>
       </c>
       <c r="N64">
-        <v>3.2872575064066198E-2</v>
+        <v>3.287257506406633E-2</v>
       </c>
       <c r="O64">
-        <v>8.9471252942288099E-3</v>
+        <v>8.9471252942287926E-3</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
@@ -8409,15 +8409,15 @@
       </c>
       <c r="AD64">
         <f t="shared" si="14"/>
-        <v>0.68389220171110199</v>
+        <v>0.68389220171110277</v>
       </c>
       <c r="AE64">
         <f t="shared" si="15"/>
-        <v>1.4807615806568308</v>
+        <v>1.4807615806568317</v>
       </c>
       <c r="AF64">
         <f t="shared" si="16"/>
-        <v>1.3936579582652526</v>
+        <v>1.3936579582652533</v>
       </c>
       <c r="AG64">
         <f t="shared" si="17"/>
@@ -8459,13 +8459,13 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.157054646907372</v>
+        <v>0.15705464690737461</v>
       </c>
       <c r="N65">
         <v>4.3107592878756901E-2</v>
       </c>
       <c r="O65">
-        <v>1.36448750782625E-2</v>
+        <v>1.364487507826251E-2</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="AD65">
         <f t="shared" si="14"/>
-        <v>0.79686937894572896</v>
+        <v>0.79686937894572907</v>
       </c>
       <c r="AE65">
         <f t="shared" si="15"/>
@@ -8575,13 +8575,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.109506219097534</v>
+        <v>0.1095062190975358</v>
       </c>
       <c r="N66">
         <v>3.2533331372077298E-2</v>
       </c>
       <c r="O66">
-        <v>7.9217202461226797E-3</v>
+        <v>7.9217202461226641E-3</v>
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
@@ -8641,15 +8641,15 @@
       </c>
       <c r="AD66">
         <f t="shared" si="14"/>
-        <v>0.67100119141030989</v>
+        <v>0.67100119141030978</v>
       </c>
       <c r="AE66">
         <f t="shared" si="15"/>
-        <v>1.4482999635012415</v>
+        <v>1.4482999635012426</v>
       </c>
       <c r="AF66">
         <f t="shared" si="16"/>
-        <v>1.3336862973248842</v>
+        <v>1.3336862973248853</v>
       </c>
       <c r="AG66">
         <f t="shared" si="17"/>
@@ -8676,7 +8676,7 @@
         <v>5312</v>
       </c>
       <c r="G67">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="H67">
         <v>5364</v>
@@ -8691,13 +8691,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.13696012014637099</v>
+        <v>0.13696012014637399</v>
       </c>
       <c r="N67">
-        <v>4.2261909163526998E-2</v>
+        <v>4.2261909163527067E-2</v>
       </c>
       <c r="O67">
-        <v>1.19200375793594E-2</v>
+        <v>1.192003757935948E-2</v>
       </c>
       <c r="P67">
         <f t="shared" ref="P67:P69" si="18">0.9964</f>
@@ -8713,11 +8713,11 @@
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S69" si="21">(G67-E67)/128</f>
-        <v>0.7109375</v>
+        <v>0.703125</v>
       </c>
       <c r="T67">
         <f t="shared" ref="T67" si="22">(I67-G67)/128</f>
-        <v>0.4453125</v>
+        <v>0.453125</v>
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U69" si="23">(F67-E67)/128</f>
@@ -8725,11 +8725,11 @@
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V68" si="24">(G67-H67)/128</f>
-        <v>0.1484375</v>
+        <v>0.140625</v>
       </c>
       <c r="W67">
         <f t="shared" ref="W67:W68" si="25">U67+V67</f>
-        <v>0.3046875</v>
+        <v>0.296875</v>
       </c>
       <c r="X67">
         <f t="shared" ref="X67:X68" si="26">(H67-F67)/128</f>
@@ -8757,15 +8757,15 @@
       </c>
       <c r="AD67">
         <f t="shared" ref="AD67:AD68" si="32">2 * SQRT(2 * P67 * N67 - N67 * N67) + 2 * SQRT(2 * AC67 * O67 - O67 * O67)</f>
-        <v>0.77729877209093168</v>
+        <v>0.77729877209093279</v>
       </c>
       <c r="AE67">
         <f t="shared" ref="AE67" si="33">AD67+AD68</f>
-        <v>1.5203674305695529</v>
+        <v>1.5172040896937375</v>
       </c>
       <c r="AF67">
         <f t="shared" ref="AF67" si="34">AE67/R67</f>
-        <v>1.3149123723844782</v>
+        <v>1.3121765100053946</v>
       </c>
       <c r="AG67">
         <f t="shared" ref="AG67:AG68" si="35">60/Q67</f>
@@ -8789,7 +8789,7 @@
         <v>5364</v>
       </c>
       <c r="F68">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="G68">
         <v>5462</v>
@@ -8805,13 +8805,13 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>0.12850661062132901</v>
+        <v>0.12850661062133339</v>
       </c>
       <c r="N68">
         <v>3.6315042671494303E-2</v>
       </c>
       <c r="O68">
-        <v>1.2755047092584499E-2</v>
+        <v>1.236806744183932E-2</v>
       </c>
       <c r="P68">
         <f t="shared" si="18"/>
@@ -8829,7 +8829,7 @@
       <c r="T68" s="2"/>
       <c r="U68">
         <f t="shared" si="23"/>
-        <v>0.1484375</v>
+        <v>0.140625</v>
       </c>
       <c r="V68">
         <f t="shared" si="24"/>
@@ -8837,11 +8837,11 @@
       </c>
       <c r="W68">
         <f t="shared" si="25"/>
-        <v>0.3203125</v>
+        <v>0.3125</v>
       </c>
       <c r="X68">
         <f t="shared" si="26"/>
-        <v>0.4453125</v>
+        <v>0.453125</v>
       </c>
       <c r="Y68">
         <f t="shared" si="27"/>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="AD68">
         <f t="shared" si="32"/>
-        <v>0.74306865847862125</v>
+        <v>0.73990531760280476</v>
       </c>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
